--- a/src/main/resources/static/dummydata.xlsx
+++ b/src/main/resources/static/dummydata.xlsx
@@ -15,7 +15,7 @@
     <x:sheet name="location" sheetId="1" r:id="rId3"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location!$A$1:$B$295</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">location!$B$1:$B$295</x:definedName>
   </x:definedNames>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
@@ -1565,16 +1565,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet1"/>
+  <x:sheetPr codeName="Sheet1" filterMode="1"/>
   <x:dimension ref="A1:B295"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B1" activeCellId="0" sqref="B1:B1"/>
+      <x:selection activeCell="B14" activeCellId="0" sqref="B14:B14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
     <x:col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="11.71484375" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="13" style="1" customWidth="1"/>
     <x:col min="5" max="5" width="12.875" style="1" customWidth="1"/>
     <x:col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
@@ -3941,7 +3942,8 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:autoFilter ref="B1:B295"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>